--- a/biology/Botanique/Pousse_de_bambou/Pousse_de_bambou.xlsx
+++ b/biology/Botanique/Pousse_de_bambou/Pousse_de_bambou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les pousses de bambous sont les jeunes pousses comestibles (pointes des nouvelles tiges, ou chaumes, de bambous qui sortent du sol) de diverses espèces de bambous, notamment Bambusa vulgaris et Phyllostachys edulis. Elles sont utilisées dans de nombreux mets de la cuisine asiatique. On les trouve dans le commerce transformées de diverses manières, aussi bien en frais que séchées ou en conserve.
-Les pousses de bambou crues contiennent des glycosides cyanogènes, des toxines naturelles également présentes dans le manioc[2].
+Les pousses de bambou crues contiennent des glycosides cyanogènes, des toxines naturelles également présentes dans le manioc.
 Les toxines doivent être détruites par une cuisson complète et pour cette raison les pousses de bambou fraîches sont souvent bouillies avant d'être utilisées par d'autres moyens. Les toxines sont également détruites dans le processus de mise en conserve.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Espèces exploitées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les pousses de plusieurs espèces de bambous sont récoltées pour la consommation[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les pousses de plusieurs espèces de bambous sont récoltées pour la consommation,.
 Phyllostachys edulis (孟宗竹, 江南竹) produit de très grandes pousses, pesant jusqu'à 2,5 kg. Les pousses de cette espèce portent des noms différents selon l'époque de la récolte :
 les pousses d'hiver (冬筍, 鞭筍), de taille plus petite, ne dépassant pas 1 kg à la récolte, sont commercialement très importantes. Leur chair est tendre et agréable au goût ; elles sont récoltées en novembre et décembre à Taïwan.
 les pousses « chevelues » (毛竹筍) sont plus grandes, mais en raison de leur dureté et de leur goût amer, elles sont généralement utilisées pour produire des pousses de bambou séchées. Elles sont récoltées entre mars et mai à Taïwan.
